--- a/Code/Results/Cases/Case_0_120/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_120/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.993626572738638</v>
+        <v>1.043892325127094</v>
       </c>
       <c r="D2">
-        <v>1.00872849847133</v>
+        <v>1.051176082905937</v>
       </c>
       <c r="E2">
-        <v>1.009455714341584</v>
+        <v>1.051260085145705</v>
       </c>
       <c r="F2">
-        <v>1.017589339798423</v>
+        <v>1.060754753668595</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046389985174071</v>
+        <v>1.027899155600938</v>
       </c>
       <c r="J2">
-        <v>1.01599959748058</v>
+        <v>1.048960335985511</v>
       </c>
       <c r="K2">
-        <v>1.02006755618419</v>
+        <v>1.05392831161863</v>
       </c>
       <c r="L2">
-        <v>1.020784869298982</v>
+        <v>1.054012080863353</v>
       </c>
       <c r="M2">
-        <v>1.028808947501284</v>
+        <v>1.06348067176402</v>
       </c>
       <c r="N2">
-        <v>1.01744243344578</v>
+        <v>1.050449979980043</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9995883132827129</v>
+        <v>1.045152066864657</v>
       </c>
       <c r="D3">
-        <v>1.013829663949129</v>
+        <v>1.05230253714161</v>
       </c>
       <c r="E3">
-        <v>1.014479304981759</v>
+        <v>1.052369830490029</v>
       </c>
       <c r="F3">
-        <v>1.022930404356205</v>
+        <v>1.061925473886423</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046756108906196</v>
+        <v>1.027874080474153</v>
       </c>
       <c r="J3">
-        <v>1.0200902075884</v>
+        <v>1.049865573522689</v>
       </c>
       <c r="K3">
-        <v>1.024288597606406</v>
+        <v>1.054866552268061</v>
       </c>
       <c r="L3">
-        <v>1.024930212748661</v>
+        <v>1.054933672550396</v>
       </c>
       <c r="M3">
-        <v>1.03327805803673</v>
+        <v>1.064464980609586</v>
       </c>
       <c r="N3">
-        <v>1.021538852689158</v>
+        <v>1.051356503058356</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.003355043350322</v>
+        <v>1.045967373687923</v>
       </c>
       <c r="D4">
-        <v>1.017058124349831</v>
+        <v>1.053031728201908</v>
       </c>
       <c r="E4">
-        <v>1.017658951587059</v>
+        <v>1.053088207616525</v>
       </c>
       <c r="F4">
-        <v>1.026308726561251</v>
+        <v>1.062682989192161</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046969290950304</v>
+        <v>1.027855467289442</v>
       </c>
       <c r="J4">
-        <v>1.022673314406868</v>
+        <v>1.050450997333966</v>
       </c>
       <c r="K4">
-        <v>1.026954941471118</v>
+        <v>1.055473370943869</v>
       </c>
       <c r="L4">
-        <v>1.027548819876752</v>
+        <v>1.055529712462965</v>
       </c>
       <c r="M4">
-        <v>1.036099668058589</v>
+        <v>1.065101296787718</v>
       </c>
       <c r="N4">
-        <v>1.024125627815595</v>
+        <v>1.051942758238594</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004917806671153</v>
+        <v>1.046310171130769</v>
       </c>
       <c r="D5">
-        <v>1.018398801249785</v>
+        <v>1.053338352761538</v>
       </c>
       <c r="E5">
-        <v>1.018979420352921</v>
+        <v>1.053390285410622</v>
       </c>
       <c r="F5">
-        <v>1.02771114694228</v>
+        <v>1.063001444767751</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047053287175949</v>
+        <v>1.027847069720865</v>
       </c>
       <c r="J5">
-        <v>1.023744614402285</v>
+        <v>1.050697032464499</v>
       </c>
       <c r="K5">
-        <v>1.028060963236784</v>
+        <v>1.055728409868067</v>
       </c>
       <c r="L5">
-        <v>1.028635056059584</v>
+        <v>1.055780218563471</v>
       </c>
       <c r="M5">
-        <v>1.037269729144378</v>
+        <v>1.065368661604129</v>
       </c>
       <c r="N5">
-        <v>1.025198449179885</v>
+        <v>1.052189142767233</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.005179011296046</v>
+        <v>1.046367730872623</v>
       </c>
       <c r="D6">
-        <v>1.018622956175542</v>
+        <v>1.05338984065862</v>
       </c>
       <c r="E6">
-        <v>1.019200200116049</v>
+        <v>1.053441009849267</v>
       </c>
       <c r="F6">
-        <v>1.027945595827344</v>
+        <v>1.06305491465355</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047067062120959</v>
+        <v>1.027845626128536</v>
       </c>
       <c r="J6">
-        <v>1.023923649685192</v>
+        <v>1.050738338352934</v>
       </c>
       <c r="K6">
-        <v>1.028245812754172</v>
+        <v>1.055771228080995</v>
       </c>
       <c r="L6">
-        <v>1.028816599662153</v>
+        <v>1.05582227560995</v>
       </c>
       <c r="M6">
-        <v>1.037465259380085</v>
+        <v>1.065413544991993</v>
       </c>
       <c r="N6">
-        <v>1.025377738713429</v>
+        <v>1.052230507314768</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.00337600541258</v>
+        <v>1.045971953995039</v>
       </c>
       <c r="D7">
-        <v>1.017076102683065</v>
+        <v>1.05303582504782</v>
       </c>
       <c r="E7">
-        <v>1.01767665869017</v>
+        <v>1.053092243710731</v>
       </c>
       <c r="F7">
-        <v>1.026327534824085</v>
+        <v>1.062687244425503</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046970435347073</v>
+        <v>1.027855357331768</v>
       </c>
       <c r="J7">
-        <v>1.02268768587815</v>
+        <v>1.05045428516908</v>
       </c>
       <c r="K7">
-        <v>1.026969777952703</v>
+        <v>1.055476779051335</v>
       </c>
       <c r="L7">
-        <v>1.027563390889863</v>
+        <v>1.055533060008307</v>
       </c>
       <c r="M7">
-        <v>1.036115365058688</v>
+        <v>1.065104869888811</v>
       </c>
       <c r="N7">
-        <v>1.024140019696015</v>
+        <v>1.051946050742811</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9956608153138387</v>
+        <v>1.044318026714035</v>
       </c>
       <c r="D8">
-        <v>1.010467904839492</v>
+        <v>1.051556711818948</v>
       </c>
       <c r="E8">
-        <v>1.011168606635425</v>
+        <v>1.051635067616774</v>
       </c>
       <c r="F8">
-        <v>1.019410949603599</v>
+        <v>1.061150408384004</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04651866479899</v>
+        <v>1.027891175227185</v>
       </c>
       <c r="J8">
-        <v>1.017395641248969</v>
+        <v>1.049266333147558</v>
       </c>
       <c r="K8">
-        <v>1.021507924339201</v>
+        <v>1.054245454069522</v>
       </c>
       <c r="L8">
-        <v>1.022199387787742</v>
+        <v>1.054323597884408</v>
       </c>
       <c r="M8">
-        <v>1.030334253087883</v>
+        <v>1.063813447576045</v>
       </c>
       <c r="N8">
-        <v>1.018840459756453</v>
+        <v>1.050756411693158</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.981321063519647</v>
+        <v>1.041404812874007</v>
       </c>
       <c r="D9">
-        <v>0.9982331571120023</v>
+        <v>1.048952582998858</v>
       </c>
       <c r="E9">
-        <v>0.9991217815761229</v>
+        <v>1.049069581362021</v>
       </c>
       <c r="F9">
-        <v>1.006590363181521</v>
+        <v>1.05844213052052</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045538198757749</v>
+        <v>1.027936042409227</v>
       </c>
       <c r="J9">
-        <v>1.007551115230158</v>
+        <v>1.047170478584806</v>
       </c>
       <c r="K9">
-        <v>1.011354965300109</v>
+        <v>1.052073478754376</v>
       </c>
       <c r="L9">
-        <v>1.012229123349279</v>
+        <v>1.052190105743107</v>
       </c>
       <c r="M9">
-        <v>1.01957741366381</v>
+        <v>1.061533196148025</v>
       </c>
       <c r="N9">
-        <v>1.008981953381513</v>
+        <v>1.048657580776529</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9711868845184877</v>
+        <v>1.039463371585489</v>
       </c>
       <c r="D10">
-        <v>0.9896246548730656</v>
+        <v>1.04721795789742</v>
       </c>
       <c r="E10">
-        <v>0.9906475922962427</v>
+        <v>1.047360713227455</v>
       </c>
       <c r="F10">
-        <v>0.9975608080960388</v>
+        <v>1.056636446214352</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044756404776009</v>
+        <v>1.027953737677185</v>
       </c>
       <c r="J10">
-        <v>1.000592227225679</v>
+        <v>1.04577148322352</v>
       </c>
       <c r="K10">
-        <v>1.004183800749765</v>
+        <v>1.050623949075276</v>
       </c>
       <c r="L10">
-        <v>1.005187785753948</v>
+        <v>1.050766206399301</v>
       </c>
       <c r="M10">
-        <v>1.011974243007836</v>
+        <v>1.060009898031397</v>
       </c>
       <c r="N10">
-        <v>1.002013182957872</v>
+        <v>1.047256598681363</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9666439422352033</v>
+        <v>1.038622845617691</v>
       </c>
       <c r="D11">
-        <v>0.9857760926769913</v>
+        <v>1.046467178929251</v>
       </c>
       <c r="E11">
-        <v>0.986859668332482</v>
+        <v>1.04662108713725</v>
       </c>
       <c r="F11">
-        <v>0.9935222032474449</v>
+        <v>1.055854514085219</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044386417767973</v>
+        <v>1.02795851336104</v>
       </c>
       <c r="J11">
-        <v>0.9974733622059503</v>
+        <v>1.045165272122337</v>
       </c>
       <c r="K11">
-        <v>1.000971330404818</v>
+        <v>1.049995907762216</v>
       </c>
       <c r="L11">
-        <v>1.002033720771212</v>
+        <v>1.050149258038087</v>
       </c>
       <c r="M11">
-        <v>1.008567324075916</v>
+        <v>1.059349541231887</v>
       </c>
       <c r="N11">
-        <v>0.9988898887920765</v>
+        <v>1.046649526690884</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9649314803542428</v>
+        <v>1.038310654118596</v>
       </c>
       <c r="D12">
-        <v>0.984327079623059</v>
+        <v>1.046188353764212</v>
       </c>
       <c r="E12">
-        <v>0.9854335838527863</v>
+        <v>1.046346404720626</v>
       </c>
       <c r="F12">
-        <v>0.992001393461442</v>
+        <v>1.055564059703944</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044244158557024</v>
+        <v>1.027959854441096</v>
       </c>
       <c r="J12">
-        <v>0.9962979010028092</v>
+        <v>1.04494003143894</v>
       </c>
       <c r="K12">
-        <v>0.999760836640204</v>
+        <v>1.049762566199346</v>
       </c>
       <c r="L12">
-        <v>1.000845277399678</v>
+        <v>1.049920036177089</v>
       </c>
       <c r="M12">
-        <v>1.007283455451647</v>
+        <v>1.059104140401754</v>
       </c>
       <c r="N12">
-        <v>0.9977127582991997</v>
+        <v>1.04642396613988</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9652999711468081</v>
+        <v>1.038377619511988</v>
       </c>
       <c r="D13">
-        <v>0.9846388018896621</v>
+        <v>1.046248160576435</v>
       </c>
       <c r="E13">
-        <v>0.9857403689875617</v>
+        <v>1.046405322894638</v>
       </c>
       <c r="F13">
-        <v>0.992328571746269</v>
+        <v>1.055626363624096</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044274893942158</v>
+        <v>1.027959586347597</v>
       </c>
       <c r="J13">
-        <v>0.9965508285599278</v>
+        <v>1.04498834937715</v>
       </c>
       <c r="K13">
-        <v>1.000021290880265</v>
+        <v>1.049812621447654</v>
       </c>
       <c r="L13">
-        <v>1.001100985178447</v>
+        <v>1.049969207766728</v>
       </c>
       <c r="M13">
-        <v>1.007559701445266</v>
+        <v>1.059156784927913</v>
       </c>
       <c r="N13">
-        <v>0.9979660450424607</v>
+        <v>1.046472352695105</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9665029105909021</v>
+        <v>1.038597039432583</v>
       </c>
       <c r="D14">
-        <v>0.9856567222817201</v>
+        <v>1.046444130191081</v>
       </c>
       <c r="E14">
-        <v>0.9867421847631942</v>
+        <v>1.046598380837996</v>
       </c>
       <c r="F14">
-        <v>0.9933969230026667</v>
+        <v>1.055830505245422</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04437475772621</v>
+        <v>1.02795863303975</v>
       </c>
       <c r="J14">
-        <v>0.997376551298787</v>
+        <v>1.04514665502896</v>
       </c>
       <c r="K14">
-        <v>1.000871629125839</v>
+        <v>1.049976620887251</v>
       </c>
       <c r="L14">
-        <v>1.001935834754925</v>
+        <v>1.050130311713191</v>
       </c>
       <c r="M14">
-        <v>1.008461581258888</v>
+        <v>1.059329258672312</v>
       </c>
       <c r="N14">
-        <v>0.9987929404023207</v>
+        <v>1.046630883159098</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9672407116131894</v>
+        <v>1.038732233503999</v>
       </c>
       <c r="D15">
-        <v>0.9862812735175828</v>
+        <v>1.04656487980394</v>
       </c>
       <c r="E15">
-        <v>0.987356868080385</v>
+        <v>1.04671733648619</v>
       </c>
       <c r="F15">
-        <v>0.9940523850522097</v>
+        <v>1.055956282280616</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044435643904438</v>
+        <v>1.027957988347182</v>
       </c>
       <c r="J15">
-        <v>0.997883021942594</v>
+        <v>1.045244183464805</v>
       </c>
       <c r="K15">
-        <v>1.001393230997145</v>
+        <v>1.050077658494588</v>
       </c>
       <c r="L15">
-        <v>1.002447941582455</v>
+        <v>1.050229565218772</v>
       </c>
       <c r="M15">
-        <v>1.009014786275219</v>
+        <v>1.059435510183572</v>
       </c>
       <c r="N15">
-        <v>0.9993001302925348</v>
+        <v>1.046728550096508</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9714849775240634</v>
+        <v>1.039519157079385</v>
       </c>
       <c r="D16">
-        <v>0.9898774129536351</v>
+        <v>1.047267791366468</v>
       </c>
       <c r="E16">
-        <v>0.9908963809430887</v>
+        <v>1.047409806522469</v>
       </c>
       <c r="F16">
-        <v>0.9978260121096055</v>
+        <v>1.056688339137739</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04478028815821</v>
+        <v>1.027953359987855</v>
       </c>
       <c r="J16">
-        <v>1.000796898547184</v>
+        <v>1.04581170614644</v>
       </c>
       <c r="K16">
-        <v>1.004394647958307</v>
+        <v>1.050665621890557</v>
       </c>
       <c r="L16">
-        <v>1.005394805171524</v>
+        <v>1.050807142908445</v>
       </c>
       <c r="M16">
-        <v>1.012197836304389</v>
+        <v>1.060053707673818</v>
       </c>
       <c r="N16">
-        <v>1.002218144936129</v>
+        <v>1.047296878725448</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9741046672257324</v>
+        <v>1.04001280680573</v>
       </c>
       <c r="D17">
-        <v>0.992099892185933</v>
+        <v>1.047708795369358</v>
       </c>
       <c r="E17">
-        <v>0.9930840254968786</v>
+        <v>1.047844260873858</v>
       </c>
       <c r="F17">
-        <v>1.000157725454556</v>
+        <v>1.057147522501093</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044987981186764</v>
+        <v>1.027949684543335</v>
       </c>
       <c r="J17">
-        <v>1.00259566902943</v>
+        <v>1.046167580282625</v>
       </c>
       <c r="K17">
-        <v>1.006247871474204</v>
+        <v>1.051034331799684</v>
       </c>
       <c r="L17">
-        <v>1.007214413265751</v>
+        <v>1.051169336801134</v>
       </c>
       <c r="M17">
-        <v>1.014162989737394</v>
+        <v>1.060441282855114</v>
       </c>
       <c r="N17">
-        <v>1.004019469878783</v>
+        <v>1.047653258243725</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9756178816760814</v>
+        <v>1.040300757134736</v>
       </c>
       <c r="D18">
-        <v>0.9933846439108744</v>
+        <v>1.047966057002947</v>
       </c>
       <c r="E18">
-        <v>0.9943486956617726</v>
+        <v>1.048097702195357</v>
       </c>
       <c r="F18">
-        <v>1.001505449644969</v>
+        <v>1.057415350782008</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04510609652794</v>
+        <v>1.027947262159446</v>
       </c>
       <c r="J18">
-        <v>1.003634750709218</v>
+        <v>1.046375113578911</v>
       </c>
       <c r="K18">
-        <v>1.007318552483212</v>
+        <v>1.051249356945793</v>
       </c>
       <c r="L18">
-        <v>1.008265696246883</v>
+        <v>1.051380560763919</v>
       </c>
       <c r="M18">
-        <v>1.015298247566895</v>
+        <v>1.060667275765827</v>
       </c>
       <c r="N18">
-        <v>1.00506002717374</v>
+        <v>1.047861086261097</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9761313879322544</v>
+        <v>1.040398942998016</v>
       </c>
       <c r="D19">
-        <v>0.9938207840144191</v>
+        <v>1.048053781945963</v>
       </c>
       <c r="E19">
-        <v>0.9947780277315866</v>
+        <v>1.048184124506306</v>
       </c>
       <c r="F19">
-        <v>1.001962937218126</v>
+        <v>1.057506672386863</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045145860066429</v>
+        <v>1.027946388914831</v>
       </c>
       <c r="J19">
-        <v>1.003987367707326</v>
+        <v>1.046445869972014</v>
       </c>
       <c r="K19">
-        <v>1.007681916812196</v>
+        <v>1.051322668704465</v>
       </c>
       <c r="L19">
-        <v>1.00862248106784</v>
+        <v>1.051452576330494</v>
       </c>
       <c r="M19">
-        <v>1.015683511601486</v>
+        <v>1.060744321130741</v>
       </c>
       <c r="N19">
-        <v>1.005413144928431</v>
+        <v>1.047931943136394</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9738251429493462</v>
+        <v>1.039959841557024</v>
       </c>
       <c r="D20">
-        <v>0.9918626482920185</v>
+        <v>1.047661476569679</v>
       </c>
       <c r="E20">
-        <v>0.9928504943061522</v>
+        <v>1.047797644790344</v>
       </c>
       <c r="F20">
-        <v>0.9999088388368121</v>
+        <v>1.057098257060946</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044966011648901</v>
+        <v>1.027950107690478</v>
       </c>
       <c r="J20">
-        <v>1.002403731449409</v>
+        <v>1.04612940271685</v>
       </c>
       <c r="K20">
-        <v>1.006050108445622</v>
+        <v>1.050994776563152</v>
       </c>
       <c r="L20">
-        <v>1.007020235019923</v>
+        <v>1.051130480722889</v>
       </c>
       <c r="M20">
-        <v>1.013953291393205</v>
+        <v>1.06039970727857</v>
       </c>
       <c r="N20">
-        <v>1.003827259725382</v>
+        <v>1.047615026461428</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9661493803099064</v>
+        <v>1.038532425277425</v>
       </c>
       <c r="D21">
-        <v>0.9853575190835214</v>
+        <v>1.046386420721044</v>
       </c>
       <c r="E21">
-        <v>0.9864477125215888</v>
+        <v>1.046541528779912</v>
       </c>
       <c r="F21">
-        <v>0.993082902864496</v>
+        <v>1.055770390910393</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044345484522789</v>
+        <v>1.027958925706458</v>
       </c>
       <c r="J21">
-        <v>0.9971338745762104</v>
+        <v>1.045100039816711</v>
       </c>
       <c r="K21">
-        <v>1.000621711100967</v>
+        <v>1.049928328779388</v>
       </c>
       <c r="L21">
-        <v>1.001690467697027</v>
+        <v>1.050082872275128</v>
       </c>
       <c r="M21">
-        <v>1.008196517539705</v>
+        <v>1.059278472633046</v>
       </c>
       <c r="N21">
-        <v>0.9985499190509624</v>
+        <v>1.0465842017479</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9611776178861421</v>
+        <v>1.03763505073521</v>
       </c>
       <c r="D22">
-        <v>0.9811540094459019</v>
+        <v>1.045585017103554</v>
       </c>
       <c r="E22">
-        <v>0.9823109135627852</v>
+        <v>1.045752033852957</v>
       </c>
       <c r="F22">
-        <v>0.9886706835030683</v>
+        <v>1.054935450496796</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043927333879123</v>
+        <v>1.027961966178107</v>
       </c>
       <c r="J22">
-        <v>0.9937216608751245</v>
+        <v>1.044452450884162</v>
       </c>
       <c r="K22">
-        <v>0.9971082877636315</v>
+        <v>1.049257468477535</v>
       </c>
       <c r="L22">
-        <v>0.9982411324280729</v>
+        <v>1.049423852908053</v>
       </c>
       <c r="M22">
-        <v>1.004469967621466</v>
+        <v>1.058572842595227</v>
       </c>
       <c r="N22">
-        <v>0.9951328596150348</v>
+        <v>1.045935693164788</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9638276876935679</v>
+        <v>1.038110757403342</v>
       </c>
       <c r="D23">
-        <v>0.983393594011796</v>
+        <v>1.046009830723481</v>
       </c>
       <c r="E23">
-        <v>0.9845148980744298</v>
+        <v>1.046170534379576</v>
       </c>
       <c r="F23">
-        <v>0.9910215895262821</v>
+        <v>1.05537807410726</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044151694445601</v>
+        <v>1.027960591417237</v>
       </c>
       <c r="J23">
-        <v>0.9955403075954175</v>
+        <v>1.044795787191923</v>
       </c>
       <c r="K23">
-        <v>0.9989807359201481</v>
+        <v>1.04961313704523</v>
       </c>
       <c r="L23">
-        <v>1.00007939976292</v>
+        <v>1.049773244741204</v>
       </c>
       <c r="M23">
-        <v>1.006456043402818</v>
+        <v>1.058946973806699</v>
       </c>
       <c r="N23">
-        <v>0.9969540890222724</v>
+        <v>1.046279517049488</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9739514935636582</v>
+        <v>1.039983774233538</v>
       </c>
       <c r="D24">
-        <v>0.9919698842939866</v>
+        <v>1.047682857801351</v>
       </c>
       <c r="E24">
-        <v>0.9929560519676113</v>
+        <v>1.04781870849487</v>
       </c>
       <c r="F24">
-        <v>1.000021337973997</v>
+        <v>1.057120518010208</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044975948088801</v>
+        <v>1.027949917349334</v>
       </c>
       <c r="J24">
-        <v>1.002490490943377</v>
+        <v>1.046146653645544</v>
       </c>
       <c r="K24">
-        <v>1.006139500709628</v>
+        <v>1.05101264998665</v>
       </c>
       <c r="L24">
-        <v>1.007108006830184</v>
+        <v>1.051148038228404</v>
       </c>
       <c r="M24">
-        <v>1.014048078903958</v>
+        <v>1.060418493718115</v>
       </c>
       <c r="N24">
-        <v>1.003914142427784</v>
+        <v>1.047632301888419</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9851236695283759</v>
+        <v>1.042157816278689</v>
       </c>
       <c r="D25">
-        <v>1.001471475875222</v>
+        <v>1.049625551039761</v>
       </c>
       <c r="E25">
-        <v>1.002310031127923</v>
+        <v>1.049732560525132</v>
       </c>
       <c r="F25">
-        <v>1.009985355785963</v>
+        <v>1.05914231099548</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045813928680662</v>
+        <v>1.027926600194826</v>
       </c>
       <c r="J25">
-        <v>1.010162266932029</v>
+        <v>1.047712613062052</v>
       </c>
       <c r="K25">
-        <v>1.014046991942178</v>
+        <v>1.052635255177078</v>
       </c>
       <c r="L25">
-        <v>1.014872592368981</v>
+        <v>1.052741937996899</v>
       </c>
       <c r="M25">
-        <v>1.022430614621136</v>
+        <v>1.062123244795018</v>
       </c>
       <c r="N25">
-        <v>1.011596813218304</v>
+        <v>1.049200485146917</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_120/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_120/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.043892325127094</v>
+        <v>0.9936265727386392</v>
       </c>
       <c r="D2">
-        <v>1.051176082905937</v>
+        <v>1.008728498471331</v>
       </c>
       <c r="E2">
-        <v>1.051260085145705</v>
+        <v>1.009455714341585</v>
       </c>
       <c r="F2">
-        <v>1.060754753668595</v>
+        <v>1.017589339798424</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.027899155600938</v>
+        <v>1.046389985174071</v>
       </c>
       <c r="J2">
-        <v>1.048960335985511</v>
+        <v>1.015999597480581</v>
       </c>
       <c r="K2">
-        <v>1.05392831161863</v>
+        <v>1.020067556184191</v>
       </c>
       <c r="L2">
-        <v>1.054012080863353</v>
+        <v>1.020784869298982</v>
       </c>
       <c r="M2">
-        <v>1.06348067176402</v>
+        <v>1.028808947501285</v>
       </c>
       <c r="N2">
-        <v>1.050449979980043</v>
+        <v>1.017442433445781</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045152066864657</v>
+        <v>0.9995883132827132</v>
       </c>
       <c r="D3">
-        <v>1.05230253714161</v>
+        <v>1.013829663949129</v>
       </c>
       <c r="E3">
-        <v>1.052369830490029</v>
+        <v>1.014479304981759</v>
       </c>
       <c r="F3">
-        <v>1.061925473886423</v>
+        <v>1.022930404356205</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.027874080474153</v>
+        <v>1.046756108906196</v>
       </c>
       <c r="J3">
-        <v>1.049865573522689</v>
+        <v>1.020090207588401</v>
       </c>
       <c r="K3">
-        <v>1.054866552268061</v>
+        <v>1.024288597606406</v>
       </c>
       <c r="L3">
-        <v>1.054933672550396</v>
+        <v>1.024930212748661</v>
       </c>
       <c r="M3">
-        <v>1.064464980609586</v>
+        <v>1.03327805803673</v>
       </c>
       <c r="N3">
-        <v>1.051356503058356</v>
+        <v>1.021538852689158</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045967373687923</v>
+        <v>1.003355043350324</v>
       </c>
       <c r="D4">
-        <v>1.053031728201908</v>
+        <v>1.017058124349833</v>
       </c>
       <c r="E4">
-        <v>1.053088207616525</v>
+        <v>1.017658951587061</v>
       </c>
       <c r="F4">
-        <v>1.062682989192161</v>
+        <v>1.026308726561252</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.027855467289442</v>
+        <v>1.046969290950304</v>
       </c>
       <c r="J4">
-        <v>1.050450997333966</v>
+        <v>1.022673314406869</v>
       </c>
       <c r="K4">
-        <v>1.055473370943869</v>
+        <v>1.02695494147112</v>
       </c>
       <c r="L4">
-        <v>1.055529712462965</v>
+        <v>1.027548819876753</v>
       </c>
       <c r="M4">
-        <v>1.065101296787718</v>
+        <v>1.036099668058591</v>
       </c>
       <c r="N4">
-        <v>1.051942758238594</v>
+        <v>1.024125627815595</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046310171130769</v>
+        <v>1.004917806671153</v>
       </c>
       <c r="D5">
-        <v>1.053338352761538</v>
+        <v>1.018398801249785</v>
       </c>
       <c r="E5">
-        <v>1.053390285410622</v>
+        <v>1.018979420352921</v>
       </c>
       <c r="F5">
-        <v>1.063001444767751</v>
+        <v>1.02771114694228</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.027847069720865</v>
+        <v>1.047053287175949</v>
       </c>
       <c r="J5">
-        <v>1.050697032464499</v>
+        <v>1.023744614402284</v>
       </c>
       <c r="K5">
-        <v>1.055728409868067</v>
+        <v>1.028060963236783</v>
       </c>
       <c r="L5">
-        <v>1.055780218563471</v>
+        <v>1.028635056059583</v>
       </c>
       <c r="M5">
-        <v>1.065368661604129</v>
+        <v>1.037269729144378</v>
       </c>
       <c r="N5">
-        <v>1.052189142767233</v>
+        <v>1.025198449179884</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046367730872623</v>
+        <v>1.005179011296046</v>
       </c>
       <c r="D6">
-        <v>1.05338984065862</v>
+        <v>1.018622956175543</v>
       </c>
       <c r="E6">
-        <v>1.053441009849267</v>
+        <v>1.019200200116049</v>
       </c>
       <c r="F6">
-        <v>1.06305491465355</v>
+        <v>1.027945595827345</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027845626128536</v>
+        <v>1.047067062120959</v>
       </c>
       <c r="J6">
-        <v>1.050738338352934</v>
+        <v>1.023923649685192</v>
       </c>
       <c r="K6">
-        <v>1.055771228080995</v>
+        <v>1.028245812754172</v>
       </c>
       <c r="L6">
-        <v>1.05582227560995</v>
+        <v>1.028816599662153</v>
       </c>
       <c r="M6">
-        <v>1.065413544991993</v>
+        <v>1.037465259380086</v>
       </c>
       <c r="N6">
-        <v>1.052230507314768</v>
+        <v>1.025377738713429</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045971953995039</v>
+        <v>1.003376005412579</v>
       </c>
       <c r="D7">
-        <v>1.05303582504782</v>
+        <v>1.017076102683064</v>
       </c>
       <c r="E7">
-        <v>1.053092243710731</v>
+        <v>1.017676658690169</v>
       </c>
       <c r="F7">
-        <v>1.062687244425503</v>
+        <v>1.026327534824085</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.027855357331768</v>
+        <v>1.046970435347072</v>
       </c>
       <c r="J7">
-        <v>1.05045428516908</v>
+        <v>1.02268768587815</v>
       </c>
       <c r="K7">
-        <v>1.055476779051335</v>
+        <v>1.026969777952702</v>
       </c>
       <c r="L7">
-        <v>1.055533060008307</v>
+        <v>1.027563390889862</v>
       </c>
       <c r="M7">
-        <v>1.065104869888811</v>
+        <v>1.036115365058687</v>
       </c>
       <c r="N7">
-        <v>1.051946050742811</v>
+        <v>1.024140019696014</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.044318026714035</v>
+        <v>0.9956608153138381</v>
       </c>
       <c r="D8">
-        <v>1.051556711818948</v>
+        <v>1.010467904839492</v>
       </c>
       <c r="E8">
-        <v>1.051635067616774</v>
+        <v>1.011168606635424</v>
       </c>
       <c r="F8">
-        <v>1.061150408384004</v>
+        <v>1.019410949603598</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.027891175227185</v>
+        <v>1.04651866479899</v>
       </c>
       <c r="J8">
-        <v>1.049266333147558</v>
+        <v>1.017395641248968</v>
       </c>
       <c r="K8">
-        <v>1.054245454069522</v>
+        <v>1.0215079243392</v>
       </c>
       <c r="L8">
-        <v>1.054323597884408</v>
+        <v>1.022199387787742</v>
       </c>
       <c r="M8">
-        <v>1.063813447576045</v>
+        <v>1.030334253087883</v>
       </c>
       <c r="N8">
-        <v>1.050756411693158</v>
+        <v>1.018840459756453</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.041404812874007</v>
+        <v>0.9813210635196491</v>
       </c>
       <c r="D9">
-        <v>1.048952582998858</v>
+        <v>0.9982331571120039</v>
       </c>
       <c r="E9">
-        <v>1.049069581362021</v>
+        <v>0.9991217815761245</v>
       </c>
       <c r="F9">
-        <v>1.05844213052052</v>
+        <v>1.006590363181523</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027936042409227</v>
+        <v>1.045538198757749</v>
       </c>
       <c r="J9">
-        <v>1.047170478584806</v>
+        <v>1.00755111523016</v>
       </c>
       <c r="K9">
-        <v>1.052073478754376</v>
+        <v>1.011354965300111</v>
       </c>
       <c r="L9">
-        <v>1.052190105743107</v>
+        <v>1.012229123349281</v>
       </c>
       <c r="M9">
-        <v>1.061533196148025</v>
+        <v>1.019577413663812</v>
       </c>
       <c r="N9">
-        <v>1.048657580776529</v>
+        <v>1.008981953381515</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.039463371585489</v>
+        <v>0.9711868845184869</v>
       </c>
       <c r="D10">
-        <v>1.04721795789742</v>
+        <v>0.9896246548730652</v>
       </c>
       <c r="E10">
-        <v>1.047360713227455</v>
+        <v>0.990647592296242</v>
       </c>
       <c r="F10">
-        <v>1.056636446214352</v>
+        <v>0.9975608080960383</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027953737677185</v>
+        <v>1.044756404776009</v>
       </c>
       <c r="J10">
-        <v>1.04577148322352</v>
+        <v>1.000592227225678</v>
       </c>
       <c r="K10">
-        <v>1.050623949075276</v>
+        <v>1.004183800749765</v>
       </c>
       <c r="L10">
-        <v>1.050766206399301</v>
+        <v>1.005187785753947</v>
       </c>
       <c r="M10">
-        <v>1.060009898031397</v>
+        <v>1.011974243007835</v>
       </c>
       <c r="N10">
-        <v>1.047256598681363</v>
+        <v>1.002013182957872</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.038622845617691</v>
+        <v>0.966643942235203</v>
       </c>
       <c r="D11">
-        <v>1.046467178929251</v>
+        <v>0.9857760926769911</v>
       </c>
       <c r="E11">
-        <v>1.04662108713725</v>
+        <v>0.9868596683324814</v>
       </c>
       <c r="F11">
-        <v>1.055854514085219</v>
+        <v>0.9935222032474444</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02795851336104</v>
+        <v>1.044386417767972</v>
       </c>
       <c r="J11">
-        <v>1.045165272122337</v>
+        <v>0.99747336220595</v>
       </c>
       <c r="K11">
-        <v>1.049995907762216</v>
+        <v>1.000971330404818</v>
       </c>
       <c r="L11">
-        <v>1.050149258038087</v>
+        <v>1.002033720771212</v>
       </c>
       <c r="M11">
-        <v>1.059349541231887</v>
+        <v>1.008567324075916</v>
       </c>
       <c r="N11">
-        <v>1.046649526690884</v>
+        <v>0.9988898887920764</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.038310654118596</v>
+        <v>0.9649314803542426</v>
       </c>
       <c r="D12">
-        <v>1.046188353764212</v>
+        <v>0.9843270796230589</v>
       </c>
       <c r="E12">
-        <v>1.046346404720626</v>
+        <v>0.9854335838527859</v>
       </c>
       <c r="F12">
-        <v>1.055564059703944</v>
+        <v>0.9920013934614417</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027959854441096</v>
+        <v>1.044244158557024</v>
       </c>
       <c r="J12">
-        <v>1.04494003143894</v>
+        <v>0.9962979010028091</v>
       </c>
       <c r="K12">
-        <v>1.049762566199346</v>
+        <v>0.9997608366402038</v>
       </c>
       <c r="L12">
-        <v>1.049920036177089</v>
+        <v>1.000845277399678</v>
       </c>
       <c r="M12">
-        <v>1.059104140401754</v>
+        <v>1.007283455451647</v>
       </c>
       <c r="N12">
-        <v>1.04642396613988</v>
+        <v>0.9977127582991996</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.038377619511988</v>
+        <v>0.9652999711468078</v>
       </c>
       <c r="D13">
-        <v>1.046248160576435</v>
+        <v>0.9846388018896619</v>
       </c>
       <c r="E13">
-        <v>1.046405322894638</v>
+        <v>0.9857403689875612</v>
       </c>
       <c r="F13">
-        <v>1.055626363624096</v>
+        <v>0.9923285717462687</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027959586347597</v>
+        <v>1.044274893942158</v>
       </c>
       <c r="J13">
-        <v>1.04498834937715</v>
+        <v>0.9965508285599274</v>
       </c>
       <c r="K13">
-        <v>1.049812621447654</v>
+        <v>1.000021290880265</v>
       </c>
       <c r="L13">
-        <v>1.049969207766728</v>
+        <v>1.001100985178447</v>
       </c>
       <c r="M13">
-        <v>1.059156784927913</v>
+        <v>1.007559701445266</v>
       </c>
       <c r="N13">
-        <v>1.046472352695105</v>
+        <v>0.9979660450424603</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.038597039432583</v>
+        <v>0.9665029105909024</v>
       </c>
       <c r="D14">
-        <v>1.046444130191081</v>
+        <v>0.9856567222817203</v>
       </c>
       <c r="E14">
-        <v>1.046598380837996</v>
+        <v>0.9867421847631944</v>
       </c>
       <c r="F14">
-        <v>1.055830505245422</v>
+        <v>0.993396923002667</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02795863303975</v>
+        <v>1.04437475772621</v>
       </c>
       <c r="J14">
-        <v>1.04514665502896</v>
+        <v>0.9973765512987873</v>
       </c>
       <c r="K14">
-        <v>1.049976620887251</v>
+        <v>1.000871629125839</v>
       </c>
       <c r="L14">
-        <v>1.050130311713191</v>
+        <v>1.001935834754925</v>
       </c>
       <c r="M14">
-        <v>1.059329258672312</v>
+        <v>1.008461581258888</v>
       </c>
       <c r="N14">
-        <v>1.046630883159098</v>
+        <v>0.9987929404023211</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.038732233503999</v>
+        <v>0.9672407116131889</v>
       </c>
       <c r="D15">
-        <v>1.04656487980394</v>
+        <v>0.9862812735175822</v>
       </c>
       <c r="E15">
-        <v>1.04671733648619</v>
+        <v>0.9873568680803841</v>
       </c>
       <c r="F15">
-        <v>1.055956282280616</v>
+        <v>0.9940523850522092</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027957988347182</v>
+        <v>1.044435643904438</v>
       </c>
       <c r="J15">
-        <v>1.045244183464805</v>
+        <v>0.9978830219425937</v>
       </c>
       <c r="K15">
-        <v>1.050077658494588</v>
+        <v>1.001393230997144</v>
       </c>
       <c r="L15">
-        <v>1.050229565218772</v>
+        <v>1.002447941582455</v>
       </c>
       <c r="M15">
-        <v>1.059435510183572</v>
+        <v>1.009014786275218</v>
       </c>
       <c r="N15">
-        <v>1.046728550096508</v>
+        <v>0.9993001302925345</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.039519157079385</v>
+        <v>0.971484977524063</v>
       </c>
       <c r="D16">
-        <v>1.047267791366468</v>
+        <v>0.989877412953635</v>
       </c>
       <c r="E16">
-        <v>1.047409806522469</v>
+        <v>0.9908963809430882</v>
       </c>
       <c r="F16">
-        <v>1.056688339137739</v>
+        <v>0.9978260121096052</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027953359987855</v>
+        <v>1.04478028815821</v>
       </c>
       <c r="J16">
-        <v>1.04581170614644</v>
+        <v>1.000796898547183</v>
       </c>
       <c r="K16">
-        <v>1.050665621890557</v>
+        <v>1.004394647958306</v>
       </c>
       <c r="L16">
-        <v>1.050807142908445</v>
+        <v>1.005394805171524</v>
       </c>
       <c r="M16">
-        <v>1.060053707673818</v>
+        <v>1.012197836304389</v>
       </c>
       <c r="N16">
-        <v>1.047296878725448</v>
+        <v>1.002218144936129</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.04001280680573</v>
+        <v>0.9741046672257304</v>
       </c>
       <c r="D17">
-        <v>1.047708795369358</v>
+        <v>0.9920998921859314</v>
       </c>
       <c r="E17">
-        <v>1.047844260873858</v>
+        <v>0.9930840254968768</v>
       </c>
       <c r="F17">
-        <v>1.057147522501093</v>
+        <v>1.000157725454554</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027949684543335</v>
+        <v>1.044987981186764</v>
       </c>
       <c r="J17">
-        <v>1.046167580282625</v>
+        <v>1.002595669029429</v>
       </c>
       <c r="K17">
-        <v>1.051034331799684</v>
+        <v>1.006247871474202</v>
       </c>
       <c r="L17">
-        <v>1.051169336801134</v>
+        <v>1.007214413265749</v>
       </c>
       <c r="M17">
-        <v>1.060441282855114</v>
+        <v>1.014162989737392</v>
       </c>
       <c r="N17">
-        <v>1.047653258243725</v>
+        <v>1.004019469878781</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.040300757134736</v>
+        <v>0.9756178816760815</v>
       </c>
       <c r="D18">
-        <v>1.047966057002947</v>
+        <v>0.9933846439108746</v>
       </c>
       <c r="E18">
-        <v>1.048097702195357</v>
+        <v>0.9943486956617726</v>
       </c>
       <c r="F18">
-        <v>1.057415350782008</v>
+        <v>1.001505449644969</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027947262159446</v>
+        <v>1.045106096527939</v>
       </c>
       <c r="J18">
-        <v>1.046375113578911</v>
+        <v>1.003634750709218</v>
       </c>
       <c r="K18">
-        <v>1.051249356945793</v>
+        <v>1.007318552483212</v>
       </c>
       <c r="L18">
-        <v>1.051380560763919</v>
+        <v>1.008265696246883</v>
       </c>
       <c r="M18">
-        <v>1.060667275765827</v>
+        <v>1.015298247566895</v>
       </c>
       <c r="N18">
-        <v>1.047861086261097</v>
+        <v>1.00506002717374</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.040398942998016</v>
+        <v>0.9761313879322543</v>
       </c>
       <c r="D19">
-        <v>1.048053781945963</v>
+        <v>0.993820784014419</v>
       </c>
       <c r="E19">
-        <v>1.048184124506306</v>
+        <v>0.9947780277315867</v>
       </c>
       <c r="F19">
-        <v>1.057506672386863</v>
+        <v>1.001962937218126</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027946388914831</v>
+        <v>1.045145860066429</v>
       </c>
       <c r="J19">
-        <v>1.046445869972014</v>
+        <v>1.003987367707326</v>
       </c>
       <c r="K19">
-        <v>1.051322668704465</v>
+        <v>1.007681916812196</v>
       </c>
       <c r="L19">
-        <v>1.051452576330494</v>
+        <v>1.00862248106784</v>
       </c>
       <c r="M19">
-        <v>1.060744321130741</v>
+        <v>1.015683511601486</v>
       </c>
       <c r="N19">
-        <v>1.047931943136394</v>
+        <v>1.005413144928431</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.039959841557024</v>
+        <v>0.9738251429493464</v>
       </c>
       <c r="D20">
-        <v>1.047661476569679</v>
+        <v>0.9918626482920185</v>
       </c>
       <c r="E20">
-        <v>1.047797644790344</v>
+        <v>0.9928504943061522</v>
       </c>
       <c r="F20">
-        <v>1.057098257060946</v>
+        <v>0.9999088388368125</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027950107690478</v>
+        <v>1.044966011648901</v>
       </c>
       <c r="J20">
-        <v>1.04612940271685</v>
+        <v>1.002403731449409</v>
       </c>
       <c r="K20">
-        <v>1.050994776563152</v>
+        <v>1.006050108445622</v>
       </c>
       <c r="L20">
-        <v>1.051130480722889</v>
+        <v>1.007020235019923</v>
       </c>
       <c r="M20">
-        <v>1.06039970727857</v>
+        <v>1.013953291393205</v>
       </c>
       <c r="N20">
-        <v>1.047615026461428</v>
+        <v>1.003827259725382</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.038532425277425</v>
+        <v>0.9661493803099065</v>
       </c>
       <c r="D21">
-        <v>1.046386420721044</v>
+        <v>0.9853575190835215</v>
       </c>
       <c r="E21">
-        <v>1.046541528779912</v>
+        <v>0.986447712521589</v>
       </c>
       <c r="F21">
-        <v>1.055770390910393</v>
+        <v>0.9930829028644964</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027958925706458</v>
+        <v>1.044345484522789</v>
       </c>
       <c r="J21">
-        <v>1.045100039816711</v>
+        <v>0.9971338745762106</v>
       </c>
       <c r="K21">
-        <v>1.049928328779388</v>
+        <v>1.000621711100967</v>
       </c>
       <c r="L21">
-        <v>1.050082872275128</v>
+        <v>1.001690467697027</v>
       </c>
       <c r="M21">
-        <v>1.059278472633046</v>
+        <v>1.008196517539705</v>
       </c>
       <c r="N21">
-        <v>1.0465842017479</v>
+        <v>0.9985499190509628</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.03763505073521</v>
+        <v>0.9611776178861418</v>
       </c>
       <c r="D22">
-        <v>1.045585017103554</v>
+        <v>0.9811540094459015</v>
       </c>
       <c r="E22">
-        <v>1.045752033852957</v>
+        <v>0.9823109135627847</v>
       </c>
       <c r="F22">
-        <v>1.054935450496796</v>
+        <v>0.9886706835030677</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027961966178107</v>
+        <v>1.043927333879123</v>
       </c>
       <c r="J22">
-        <v>1.044452450884162</v>
+        <v>0.9937216608751241</v>
       </c>
       <c r="K22">
-        <v>1.049257468477535</v>
+        <v>0.9971082877636311</v>
       </c>
       <c r="L22">
-        <v>1.049423852908053</v>
+        <v>0.9982411324280723</v>
       </c>
       <c r="M22">
-        <v>1.058572842595227</v>
+        <v>1.004469967621465</v>
       </c>
       <c r="N22">
-        <v>1.045935693164788</v>
+        <v>0.9951328596150343</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.038110757403342</v>
+        <v>0.9638276876935671</v>
       </c>
       <c r="D23">
-        <v>1.046009830723481</v>
+        <v>0.9833935940117953</v>
       </c>
       <c r="E23">
-        <v>1.046170534379576</v>
+        <v>0.9845148980744292</v>
       </c>
       <c r="F23">
-        <v>1.05537807410726</v>
+        <v>0.9910215895262816</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027960591417237</v>
+        <v>1.044151694445601</v>
       </c>
       <c r="J23">
-        <v>1.044795787191923</v>
+        <v>0.9955403075954169</v>
       </c>
       <c r="K23">
-        <v>1.04961313704523</v>
+        <v>0.9989807359201475</v>
       </c>
       <c r="L23">
-        <v>1.049773244741204</v>
+        <v>1.000079399762919</v>
       </c>
       <c r="M23">
-        <v>1.058946973806699</v>
+        <v>1.006456043402818</v>
       </c>
       <c r="N23">
-        <v>1.046279517049488</v>
+        <v>0.9969540890222719</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.039983774233538</v>
+        <v>0.9739514935636581</v>
       </c>
       <c r="D24">
-        <v>1.047682857801351</v>
+        <v>0.9919698842939864</v>
       </c>
       <c r="E24">
-        <v>1.04781870849487</v>
+        <v>0.9929560519676107</v>
       </c>
       <c r="F24">
-        <v>1.057120518010208</v>
+        <v>1.000021337973997</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027949917349334</v>
+        <v>1.044975948088801</v>
       </c>
       <c r="J24">
-        <v>1.046146653645544</v>
+        <v>1.002490490943377</v>
       </c>
       <c r="K24">
-        <v>1.05101264998665</v>
+        <v>1.006139500709628</v>
       </c>
       <c r="L24">
-        <v>1.051148038228404</v>
+        <v>1.007108006830184</v>
       </c>
       <c r="M24">
-        <v>1.060418493718115</v>
+        <v>1.014048078903958</v>
       </c>
       <c r="N24">
-        <v>1.047632301888419</v>
+        <v>1.003914142427784</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.042157816278689</v>
+        <v>0.9851236695283758</v>
       </c>
       <c r="D25">
-        <v>1.049625551039761</v>
+        <v>1.001471475875222</v>
       </c>
       <c r="E25">
-        <v>1.049732560525132</v>
+        <v>1.002310031127923</v>
       </c>
       <c r="F25">
-        <v>1.05914231099548</v>
+        <v>1.009985355785963</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027926600194826</v>
+        <v>1.045813928680663</v>
       </c>
       <c r="J25">
-        <v>1.047712613062052</v>
+        <v>1.010162266932028</v>
       </c>
       <c r="K25">
-        <v>1.052635255177078</v>
+        <v>1.014046991942178</v>
       </c>
       <c r="L25">
-        <v>1.052741937996899</v>
+        <v>1.014872592368981</v>
       </c>
       <c r="M25">
-        <v>1.062123244795018</v>
+        <v>1.022430614621136</v>
       </c>
       <c r="N25">
-        <v>1.049200485146917</v>
+        <v>1.011596813218304</v>
       </c>
     </row>
   </sheetData>
